--- a/excel_file_formats/format/basic_data.xlsx
+++ b/excel_file_formats/format/basic_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="965" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Basic data" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,123 +14,118 @@
     <sheet name="Semi-Confined aquifer piezometr" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment Unit Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guideline </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storativity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Area [ha]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilly area [ha]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest area [ha]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area covered in command [ha]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area covered in non command [ha]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area covered in GW Poor quality [ha]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water logged area in ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood prone area in ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood impound days in a year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monsoon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">non monsoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring discharge (lpm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average days spring yields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the Confined Aquifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of confined aquifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom of top confinig layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Being Extracted or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Piezometric head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Monsoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-Monsoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the Semi-Confined Aquifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom of top confining layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Piezometric head above MSL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Assessment Year</t>
+  </si>
+  <si>
+    <t>Assessment Unit Level</t>
+  </si>
+  <si>
+    <t>Sheet Description</t>
+  </si>
+  <si>
+    <t>Guideline </t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Mandal</t>
+  </si>
+  <si>
+    <t>Assessment Unit</t>
+  </si>
+  <si>
+    <t>Specific Yield</t>
+  </si>
+  <si>
+    <t>Infiltration Factor</t>
+  </si>
+  <si>
+    <t>Total Area [ha]</t>
+  </si>
+  <si>
+    <t>Hilly area [ha]</t>
+  </si>
+  <si>
+    <t>Forest area [ha]</t>
+  </si>
+  <si>
+    <t>Area covered in command [ha]</t>
+  </si>
+  <si>
+    <t>Area covered in non command [ha]</t>
+  </si>
+  <si>
+    <t>Area covered in GW Poor quality [ha]</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Water logged area in ha</t>
+  </si>
+  <si>
+    <t>Flood prone area in ha</t>
+  </si>
+  <si>
+    <t>Flood impound days in a year</t>
+  </si>
+  <si>
+    <t>monsoon </t>
+  </si>
+  <si>
+    <t>non monsoon</t>
+  </si>
+  <si>
+    <t>spring discharge (lpm)</t>
+  </si>
+  <si>
+    <t>average days spring yields</t>
+  </si>
+  <si>
+    <t>Name of the Confined Aquifer</t>
+  </si>
+  <si>
+    <t>Area of confined aquifer</t>
+  </si>
+  <si>
+    <t>Storativity</t>
+  </si>
+  <si>
+    <t>Bottom of top confinig layer</t>
+  </si>
+  <si>
+    <t>Being Extracted or Not</t>
+  </si>
+  <si>
+    <t>Average Piezometric head</t>
+  </si>
+  <si>
+    <t>Pre-Monsoon</t>
+  </si>
+  <si>
+    <t>Post-Monsoon</t>
+  </si>
+  <si>
+    <t>Name of the Semi-Confined Aquifer</t>
+  </si>
+  <si>
+    <t>Bottom of top confining layer</t>
+  </si>
+  <si>
+    <t>Average Piezometric head above MSL</t>
   </si>
 </sst>
 </file>
@@ -138,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -262,7 +257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,10 +306,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,10 +322,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,10 +332,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -372,13 +355,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5969387755102"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5816326530612"/>
@@ -386,19 +369,19 @@
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="18.4948979591837"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3877551020408"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -421,7 +404,6 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -440,8 +422,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="0"/>
+      <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -460,8 +441,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="0"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -480,8 +460,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="0"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -501,7 +480,6 @@
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
@@ -519,7 +497,6 @@
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
@@ -537,7 +514,6 @@
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
@@ -555,9 +531,8 @@
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -573,9 +548,8 @@
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -600,26 +574,23 @@
       <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
@@ -635,9 +606,8 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -740,75 +710,75 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="14" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -948,72 +918,72 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1046,7 +1016,7 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1154,72 +1124,72 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
